--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77156.47611042528</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77156.47611042528</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265216549.089742</v>
+        <v>46639274.47456783</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13392.3954565771</v>
+        <v>1096282.93860145</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25793.32027524229</v>
+        <v>2022688.308759874</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38198.96118268673</v>
+        <v>2949093.678918299</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50862.18823459758</v>
+        <v>3874570.529857681</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63525.41528650841</v>
+        <v>4800047.380797063</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76188.64233841925</v>
+        <v>5725524.231736445</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88851.86939033007</v>
+        <v>6651001.082675822</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101515.0925478215</v>
+        <v>7576477.933615198</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114178.3195997323</v>
+        <v>8501954.784554577</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126841.5427572238</v>
+        <v>9427431.635493953</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139504.7698091347</v>
+        <v>10352908.48643333</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152167.9968610455</v>
+        <v>11278385.33737271</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164831.2239129564</v>
+        <v>12203862.1883121</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>177494.4509648672</v>
+        <v>13129339.03925149</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>190157.6780167782</v>
+        <v>14054815.89019088</v>
       </c>
     </row>
   </sheetData>
